--- a/Bot.xlsx
+++ b/Bot.xlsx
@@ -16,7 +16,7 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>Валерий Валерьевич Андреев</t>
+    <t>asd</t>
   </si>
   <si>
     <t>Возраст</t>
@@ -46,19 +46,19 @@
     <t>Уровень английского</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>B1</t>
   </si>
   <si>
     <t>Уровень владения пк</t>
   </si>
   <si>
-    <t>5</t>
+    <t>Знакомые</t>
   </si>
   <si>
     <t>Объявление</t>
   </si>
   <si>
-    <t>HeadHunter</t>
+    <t>Да</t>
   </si>
 </sst>
 </file>

--- a/Bot.xlsx
+++ b/Bot.xlsx
@@ -13,112 +13,112 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
+    <t>Вакансия</t>
+  </si>
+  <si>
+    <t>Middle QA Engineer</t>
+  </si>
+  <si>
     <t>ФИО</t>
   </si>
   <si>
-    <t>Иии</t>
-  </si>
-  <si>
-    <t>Сильные стороны</t>
-  </si>
-  <si>
-    <t>О</t>
-  </si>
-  <si>
-    <t>Почему мы должны нанять</t>
-  </si>
-  <si>
     <t>Р</t>
   </si>
   <si>
     <t>О себе</t>
   </si>
   <si>
-    <t>Н</t>
+    <t>П</t>
+  </si>
+  <si>
+    <t>Слабые стороны</t>
+  </si>
+  <si>
+    <t>Главное достижение</t>
+  </si>
+  <si>
+    <t>Что нравится делать в свободное время</t>
+  </si>
+  <si>
+    <t>Взаимоотношения с коллегами</t>
+  </si>
+  <si>
+    <t>Развитие в профессиональном плане</t>
+  </si>
+  <si>
+    <t>М</t>
+  </si>
+  <si>
+    <t>Идеальный работник</t>
+  </si>
+  <si>
+    <t>Через пять лет</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>Опыт работы</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Почему вы ушли с предыдущей работы</t>
+  </si>
+  <si>
+    <t>Чем интересна вакансия</t>
+  </si>
+  <si>
+    <t>Зарплата</t>
   </si>
   <si>
     <t>О компании</t>
   </si>
   <si>
-    <t>Слабые стороны</t>
-  </si>
-  <si>
-    <t>Главное достижение</t>
-  </si>
-  <si>
-    <t>Через 5 лет</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Где еще проходили собемедовние</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Стресс</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Свободные ситуации</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>Объявление</t>
+  </si>
+  <si>
+    <t>HeadHunter</t>
+  </si>
+  <si>
+    <t>Где еще проходили собеседование</t>
   </si>
   <si>
     <t>Переезд</t>
   </si>
   <si>
-    <t>да</t>
+    <t>нет</t>
   </si>
   <si>
     <t>Склад ума</t>
   </si>
   <si>
-    <t>Гуманитария</t>
-  </si>
-  <si>
-    <t>Возраст</t>
-  </si>
-  <si>
-    <t>Есть 18</t>
-  </si>
-  <si>
-    <t>Образование</t>
+    <t>Гуманитарный</t>
+  </si>
+  <si>
+    <t>Владение ПК</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>18 лет</t>
   </si>
   <si>
     <t>IT</t>
   </si>
   <si>
-    <t>Город</t>
-  </si>
-  <si>
-    <t>Саратов</t>
-  </si>
-  <si>
-    <t>Опыт работы</t>
-  </si>
-  <si>
-    <t>Есть</t>
-  </si>
-  <si>
-    <t>Уровень английского</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>Уровень владения пк</t>
-  </si>
-  <si>
-    <t>Объявление</t>
-  </si>
-  <si>
-    <t>HeadHunter</t>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Проживает в Саратове</t>
+  </si>
+  <si>
+    <t>Уровень владение англ</t>
+  </si>
+  <si>
+    <t>B2</t>
   </si>
 </sst>
 </file>
@@ -158,7 +158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -174,98 +174,186 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B16" s="0" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
